--- a/diaries/diary-bingfei-zhang.xlsx
+++ b/diaries/diary-bingfei-zhang.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bingfeizhang/JAVA/W2020/diaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bingfeizhang/JAVA/265P/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -59,42 +59,18 @@
     <t>Participants</t>
   </si>
   <si>
-    <t>&lt;what day?&gt;</t>
-  </si>
-  <si>
-    <t>&lt;what time?&gt;</t>
-  </si>
-  <si>
     <t>Reflection</t>
   </si>
   <si>
-    <t>&lt;as applicable, with whom?&gt;</t>
-  </si>
-  <si>
     <t>Your Overall Mood</t>
   </si>
   <si>
     <t>Goal</t>
   </si>
   <si>
-    <t>&lt;what did you want to accomplish?&gt;</t>
-  </si>
-  <si>
     <t>Achievements</t>
   </si>
   <si>
-    <t>&lt;what did you actually accomplish?&gt;</t>
-  </si>
-  <si>
-    <t>&lt;what insight(s) did you gain?&gt;</t>
-  </si>
-  <si>
-    <t>&lt;how did you feel during the activity?&gt;</t>
-  </si>
-  <si>
-    <t>Etc.</t>
-  </si>
-  <si>
     <t>Bingfei Zhang</t>
   </si>
   <si>
@@ -107,9 +83,6 @@
     <t>5:00 - 7:50</t>
   </si>
   <si>
-    <t>Setting up environment</t>
-  </si>
-  <si>
     <t>Set up Java, git, subversion, intellij and ran two projects.</t>
   </si>
   <si>
@@ -117,6 +90,54 @@
   </si>
   <si>
     <t>Exciting</t>
+  </si>
+  <si>
+    <t>1/10/20-1/15/20</t>
+  </si>
+  <si>
+    <t>1/17/20-1/22/20</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Downloaded a "mall" project from github,, ran it on my laptop</t>
+  </si>
+  <si>
+    <t>Usually a project requires a lot of packages for set up, documentation is very useful for others to understand and use the code.</t>
+  </si>
+  <si>
+    <t>Understand and correct the pac-mac project</t>
+  </si>
+  <si>
+    <t>Not everything in the code are used; to fix a bug, we do not need to understand everything in the code.</t>
+  </si>
+  <si>
+    <t>Happy to learn about new things</t>
+  </si>
+  <si>
+    <t>Feeling not hard</t>
+  </si>
+  <si>
+    <t>Look for project with more than 100k LOC; understand more about the pac-man project and add fruits</t>
+  </si>
+  <si>
+    <t>Set up environment</t>
+  </si>
+  <si>
+    <t>Find projects and run</t>
+  </si>
+  <si>
+    <t>Decided the project to work on;  understood pac-man more and modified it.</t>
+  </si>
+  <si>
+    <t>Sad to miss the deadline</t>
+  </si>
+  <si>
+    <t>Do not delay, do everything as soon as possible</t>
   </si>
 </sst>
 </file>
@@ -254,7 +275,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -297,6 +318,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -617,12 +653,13 @@
   <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="34.6640625" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" style="15" customWidth="1"/>
+    <col min="2" max="7" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -638,7 +675,7 @@
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -647,11 +684,11 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -660,11 +697,11 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -673,11 +710,11 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -686,7 +723,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -695,7 +732,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -714,16 +751,16 @@
         <v>6</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -731,81 +768,93 @@
         <v>43839</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12" t="s">
+      <c r="F11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="G11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="19">
+        <v>43846</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G12" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
+    <row r="13" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -814,7 +863,7 @@
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -823,7 +872,7 @@
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -841,7 +890,7 @@
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
@@ -850,7 +899,7 @@
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
@@ -859,7 +908,7 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
@@ -868,7 +917,7 @@
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
@@ -877,7 +926,7 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -886,7 +935,7 @@
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -895,7 +944,7 @@
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -904,7 +953,7 @@
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -913,7 +962,7 @@
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -922,7 +971,7 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -931,7 +980,7 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -940,7 +989,7 @@
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -949,7 +998,7 @@
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -958,7 +1007,7 @@
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -967,7 +1016,7 @@
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -976,7 +1025,7 @@
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -985,7 +1034,7 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -994,7 +1043,7 @@
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1003,7 +1052,7 @@
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1012,7 +1061,7 @@
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1021,7 +1070,7 @@
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1030,7 +1079,7 @@
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1039,7 +1088,7 @@
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1048,7 +1097,7 @@
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1057,7 +1106,7 @@
       <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
+      <c r="A42" s="18"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1066,7 +1115,7 @@
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1075,7 +1124,7 @@
       <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1084,7 +1133,7 @@
       <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1093,7 +1142,7 @@
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1102,7 +1151,7 @@
       <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
+      <c r="A47" s="18"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -1111,7 +1160,7 @@
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1120,7 +1169,7 @@
       <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
+      <c r="A49" s="18"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -1129,7 +1178,7 @@
       <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
+      <c r="A50" s="18"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -1138,7 +1187,7 @@
       <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
+      <c r="A51" s="18"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -1147,7 +1196,7 @@
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
+      <c r="A52" s="18"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -1156,7 +1205,7 @@
       <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
+      <c r="A53" s="18"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -1165,7 +1214,7 @@
       <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
+      <c r="A54" s="18"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -1174,7 +1223,7 @@
       <c r="G54" s="3"/>
     </row>
     <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
+      <c r="A55" s="18"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -1183,7 +1232,7 @@
       <c r="G55" s="3"/>
     </row>
     <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
+      <c r="A56" s="18"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -1192,7 +1241,7 @@
       <c r="G56" s="3"/>
     </row>
     <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
+      <c r="A57" s="18"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -1201,7 +1250,7 @@
       <c r="G57" s="3"/>
     </row>
     <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
+      <c r="A58" s="18"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -1210,7 +1259,7 @@
       <c r="G58" s="3"/>
     </row>
     <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
+      <c r="A59" s="18"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -1219,7 +1268,7 @@
       <c r="G59" s="3"/>
     </row>
     <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
+      <c r="A60" s="18"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -1228,7 +1277,7 @@
       <c r="G60" s="3"/>
     </row>
     <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
+      <c r="A61" s="18"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -1237,7 +1286,7 @@
       <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="2"/>
+      <c r="A62" s="18"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -1246,7 +1295,7 @@
       <c r="G62" s="3"/>
     </row>
     <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="2"/>
+      <c r="A63" s="18"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -1255,7 +1304,7 @@
       <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
+      <c r="A64" s="18"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -1264,7 +1313,7 @@
       <c r="G64" s="3"/>
     </row>
     <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
+      <c r="A65" s="18"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -1273,7 +1322,7 @@
       <c r="G65" s="3"/>
     </row>
     <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
+      <c r="A66" s="18"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -1282,7 +1331,7 @@
       <c r="G66" s="3"/>
     </row>
     <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="2"/>
+      <c r="A67" s="18"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -1291,7 +1340,7 @@
       <c r="G67" s="3"/>
     </row>
     <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="2"/>
+      <c r="A68" s="18"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -1300,7 +1349,7 @@
       <c r="G68" s="3"/>
     </row>
     <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
+      <c r="A69" s="18"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -1309,7 +1358,7 @@
       <c r="G69" s="3"/>
     </row>
     <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
+      <c r="A70" s="18"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -1318,7 +1367,7 @@
       <c r="G70" s="3"/>
     </row>
     <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
+      <c r="A71" s="18"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -1327,7 +1376,7 @@
       <c r="G71" s="3"/>
     </row>
     <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="2"/>
+      <c r="A72" s="18"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -1336,7 +1385,7 @@
       <c r="G72" s="3"/>
     </row>
     <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="2"/>
+      <c r="A73" s="18"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -1345,7 +1394,7 @@
       <c r="G73" s="3"/>
     </row>
     <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
+      <c r="A74" s="18"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -1354,7 +1403,7 @@
       <c r="G74" s="3"/>
     </row>
     <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
+      <c r="A75" s="18"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -1363,7 +1412,7 @@
       <c r="G75" s="3"/>
     </row>
     <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
+      <c r="A76" s="18"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -1372,7 +1421,7 @@
       <c r="G76" s="3"/>
     </row>
     <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="2"/>
+      <c r="A77" s="18"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -1381,7 +1430,7 @@
       <c r="G77" s="3"/>
     </row>
     <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="2"/>
+      <c r="A78" s="18"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -1390,7 +1439,7 @@
       <c r="G78" s="3"/>
     </row>
     <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="2"/>
+      <c r="A79" s="18"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -1399,7 +1448,7 @@
       <c r="G79" s="3"/>
     </row>
     <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="2"/>
+      <c r="A80" s="18"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -1408,7 +1457,7 @@
       <c r="G80" s="3"/>
     </row>
     <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="2"/>
+      <c r="A81" s="18"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -1417,7 +1466,7 @@
       <c r="G81" s="3"/>
     </row>
     <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="2"/>
+      <c r="A82" s="18"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -1426,7 +1475,7 @@
       <c r="G82" s="3"/>
     </row>
     <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="2"/>
+      <c r="A83" s="18"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -1435,7 +1484,7 @@
       <c r="G83" s="3"/>
     </row>
     <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="2"/>
+      <c r="A84" s="18"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -1444,7 +1493,7 @@
       <c r="G84" s="3"/>
     </row>
     <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="2"/>
+      <c r="A85" s="18"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -1453,7 +1502,7 @@
       <c r="G85" s="3"/>
     </row>
     <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="2"/>
+      <c r="A86" s="18"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -1462,7 +1511,7 @@
       <c r="G86" s="3"/>
     </row>
     <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="2"/>
+      <c r="A87" s="18"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -1471,7 +1520,7 @@
       <c r="G87" s="3"/>
     </row>
     <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="2"/>
+      <c r="A88" s="18"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -1480,7 +1529,7 @@
       <c r="G88" s="3"/>
     </row>
     <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="2"/>
+      <c r="A89" s="18"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -1489,7 +1538,7 @@
       <c r="G89" s="3"/>
     </row>
     <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="2"/>
+      <c r="A90" s="18"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -1498,7 +1547,7 @@
       <c r="G90" s="3"/>
     </row>
     <row r="91" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="2"/>
+      <c r="A91" s="18"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -1507,7 +1556,7 @@
       <c r="G91" s="3"/>
     </row>
     <row r="92" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="2"/>
+      <c r="A92" s="18"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -1516,7 +1565,7 @@
       <c r="G92" s="3"/>
     </row>
     <row r="93" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="2"/>
+      <c r="A93" s="18"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -1525,7 +1574,7 @@
       <c r="G93" s="3"/>
     </row>
     <row r="94" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="2"/>
+      <c r="A94" s="18"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -1534,7 +1583,7 @@
       <c r="G94" s="3"/>
     </row>
     <row r="95" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="2"/>
+      <c r="A95" s="18"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -1543,7 +1592,7 @@
       <c r="G95" s="3"/>
     </row>
     <row r="96" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="2"/>
+      <c r="A96" s="18"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -1552,7 +1601,7 @@
       <c r="G96" s="3"/>
     </row>
     <row r="97" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="2"/>
+      <c r="A97" s="18"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -1561,7 +1610,7 @@
       <c r="G97" s="3"/>
     </row>
     <row r="98" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="2"/>
+      <c r="A98" s="18"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -1570,7 +1619,7 @@
       <c r="G98" s="3"/>
     </row>
     <row r="99" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="2"/>
+      <c r="A99" s="18"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -1579,7 +1628,7 @@
       <c r="G99" s="3"/>
     </row>
     <row r="100" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="2"/>
+      <c r="A100" s="18"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -1588,7 +1637,7 @@
       <c r="G100" s="3"/>
     </row>
     <row r="101" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="2"/>
+      <c r="A101" s="18"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -1597,7 +1646,7 @@
       <c r="G101" s="3"/>
     </row>
     <row r="102" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="2"/>
+      <c r="A102" s="18"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -1606,7 +1655,7 @@
       <c r="G102" s="3"/>
     </row>
     <row r="103" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="2"/>
+      <c r="A103" s="18"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -1615,7 +1664,7 @@
       <c r="G103" s="3"/>
     </row>
     <row r="104" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="2"/>
+      <c r="A104" s="18"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -1624,7 +1673,7 @@
       <c r="G104" s="3"/>
     </row>
     <row r="105" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105" s="2"/>
+      <c r="A105" s="18"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -1633,7 +1682,7 @@
       <c r="G105" s="3"/>
     </row>
     <row r="106" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106" s="2"/>
+      <c r="A106" s="18"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -1642,7 +1691,7 @@
       <c r="G106" s="3"/>
     </row>
     <row r="107" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="2"/>
+      <c r="A107" s="18"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -1651,7 +1700,7 @@
       <c r="G107" s="3"/>
     </row>
     <row r="108" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="2"/>
+      <c r="A108" s="18"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -1660,7 +1709,7 @@
       <c r="G108" s="3"/>
     </row>
     <row r="109" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="2"/>
+      <c r="A109" s="18"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -1669,7 +1718,7 @@
       <c r="G109" s="3"/>
     </row>
     <row r="110" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="2"/>
+      <c r="A110" s="18"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -1678,7 +1727,7 @@
       <c r="G110" s="3"/>
     </row>
     <row r="111" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="2"/>
+      <c r="A111" s="18"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -1687,7 +1736,7 @@
       <c r="G111" s="3"/>
     </row>
     <row r="112" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="2"/>
+      <c r="A112" s="18"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -1696,7 +1745,7 @@
       <c r="G112" s="3"/>
     </row>
     <row r="113" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113" s="2"/>
+      <c r="A113" s="18"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -1705,7 +1754,7 @@
       <c r="G113" s="3"/>
     </row>
     <row r="114" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114" s="2"/>
+      <c r="A114" s="18"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -1714,7 +1763,7 @@
       <c r="G114" s="3"/>
     </row>
     <row r="115" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A115" s="2"/>
+      <c r="A115" s="18"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -1723,7 +1772,7 @@
       <c r="G115" s="3"/>
     </row>
     <row r="116" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A116" s="2"/>
+      <c r="A116" s="18"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -1732,7 +1781,7 @@
       <c r="G116" s="3"/>
     </row>
     <row r="117" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" s="2"/>
+      <c r="A117" s="18"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -1741,7 +1790,7 @@
       <c r="G117" s="3"/>
     </row>
     <row r="118" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="2"/>
+      <c r="A118" s="18"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -1750,7 +1799,7 @@
       <c r="G118" s="3"/>
     </row>
     <row r="119" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119" s="2"/>
+      <c r="A119" s="18"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -1759,7 +1808,7 @@
       <c r="G119" s="3"/>
     </row>
     <row r="120" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120" s="2"/>
+      <c r="A120" s="18"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -1768,7 +1817,7 @@
       <c r="G120" s="3"/>
     </row>
     <row r="121" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A121" s="2"/>
+      <c r="A121" s="18"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -1777,7 +1826,7 @@
       <c r="G121" s="3"/>
     </row>
     <row r="122" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A122" s="2"/>
+      <c r="A122" s="18"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -1786,7 +1835,7 @@
       <c r="G122" s="3"/>
     </row>
     <row r="123" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="2"/>
+      <c r="A123" s="18"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -1795,7 +1844,7 @@
       <c r="G123" s="3"/>
     </row>
     <row r="124" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124" s="2"/>
+      <c r="A124" s="18"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -1804,7 +1853,7 @@
       <c r="G124" s="3"/>
     </row>
     <row r="125" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A125" s="2"/>
+      <c r="A125" s="18"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>

--- a/diaries/diary-bingfei-zhang.xlsx
+++ b/diaries/diary-bingfei-zhang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -138,6 +138,30 @@
   </si>
   <si>
     <t>Do not delay, do everything as soon as possible</t>
+  </si>
+  <si>
+    <t>Learn UML, use templates to read code</t>
+  </si>
+  <si>
+    <t>Read pac-man</t>
+  </si>
+  <si>
+    <t>The template helps to record our thoughts. It could be very useful when the code is extrmely large</t>
+  </si>
+  <si>
+    <t>1/24/20-1/30/20</t>
+  </si>
+  <si>
+    <t>Read code we chose. Find inplementation of two features.</t>
+  </si>
+  <si>
+    <t>Tow feather' implemeantion with the help of UML and templemate.</t>
+  </si>
+  <si>
+    <t>Code without comments is a disaster</t>
+  </si>
+  <si>
+    <t>Crazy</t>
   </si>
 </sst>
 </file>
@@ -316,9 +340,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -333,6 +354,9 @@
     </xf>
     <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -652,30 +676,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" style="14" customWidth="1"/>
     <col min="2" max="7" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -684,7 +708,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -697,7 +721,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -710,7 +734,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -723,7 +747,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -732,7 +756,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -787,7 +811,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -810,7 +834,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A12" s="19">
+      <c r="A12" s="18">
         <v>43846</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -831,7 +855,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -853,26 +877,52 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+    <row r="14" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" s="18">
+        <v>43853</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="3"/>
+    <row r="15" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -890,7 +940,7 @@
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
@@ -899,7 +949,7 @@
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
@@ -908,7 +958,7 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
@@ -917,7 +967,7 @@
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
@@ -926,7 +976,7 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -935,7 +985,7 @@
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -944,7 +994,7 @@
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -953,7 +1003,7 @@
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -962,7 +1012,7 @@
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -971,7 +1021,7 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -980,7 +1030,7 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -989,7 +1039,7 @@
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -998,7 +1048,7 @@
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1007,7 +1057,7 @@
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1016,7 +1066,7 @@
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1025,7 +1075,7 @@
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1034,7 +1084,7 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1043,7 +1093,7 @@
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1052,7 +1102,7 @@
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
+      <c r="A36" s="17"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1061,7 +1111,7 @@
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1070,7 +1120,7 @@
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
+      <c r="A38" s="17"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1079,7 +1129,7 @@
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1088,7 +1138,7 @@
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="18"/>
+      <c r="A40" s="17"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1097,7 +1147,7 @@
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1106,7 +1156,7 @@
       <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
+      <c r="A42" s="17"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1115,7 +1165,7 @@
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
+      <c r="A43" s="17"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1124,7 +1174,7 @@
       <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
+      <c r="A44" s="17"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1133,7 +1183,7 @@
       <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
+      <c r="A45" s="17"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1142,7 +1192,7 @@
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
+      <c r="A46" s="17"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1151,7 +1201,7 @@
       <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
+      <c r="A47" s="17"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -1160,7 +1210,7 @@
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
+      <c r="A48" s="17"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1169,7 +1219,7 @@
       <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
+      <c r="A49" s="17"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -1178,7 +1228,7 @@
       <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="18"/>
+      <c r="A50" s="17"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -1187,7 +1237,7 @@
       <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="18"/>
+      <c r="A51" s="17"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -1196,7 +1246,7 @@
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="18"/>
+      <c r="A52" s="17"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -1205,7 +1255,7 @@
       <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="18"/>
+      <c r="A53" s="17"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -1214,7 +1264,7 @@
       <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="18"/>
+      <c r="A54" s="17"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -1223,7 +1273,7 @@
       <c r="G54" s="3"/>
     </row>
     <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="18"/>
+      <c r="A55" s="17"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -1232,7 +1282,7 @@
       <c r="G55" s="3"/>
     </row>
     <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="18"/>
+      <c r="A56" s="17"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -1241,7 +1291,7 @@
       <c r="G56" s="3"/>
     </row>
     <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="18"/>
+      <c r="A57" s="17"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -1250,7 +1300,7 @@
       <c r="G57" s="3"/>
     </row>
     <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="18"/>
+      <c r="A58" s="17"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -1259,7 +1309,7 @@
       <c r="G58" s="3"/>
     </row>
     <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="18"/>
+      <c r="A59" s="17"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -1268,7 +1318,7 @@
       <c r="G59" s="3"/>
     </row>
     <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="18"/>
+      <c r="A60" s="17"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -1277,7 +1327,7 @@
       <c r="G60" s="3"/>
     </row>
     <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="18"/>
+      <c r="A61" s="17"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -1286,7 +1336,7 @@
       <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="18"/>
+      <c r="A62" s="17"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -1295,7 +1345,7 @@
       <c r="G62" s="3"/>
     </row>
     <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="18"/>
+      <c r="A63" s="17"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -1304,7 +1354,7 @@
       <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="18"/>
+      <c r="A64" s="17"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -1313,7 +1363,7 @@
       <c r="G64" s="3"/>
     </row>
     <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="18"/>
+      <c r="A65" s="17"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -1322,7 +1372,7 @@
       <c r="G65" s="3"/>
     </row>
     <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="18"/>
+      <c r="A66" s="17"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -1331,7 +1381,7 @@
       <c r="G66" s="3"/>
     </row>
     <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="18"/>
+      <c r="A67" s="17"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -1340,7 +1390,7 @@
       <c r="G67" s="3"/>
     </row>
     <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="18"/>
+      <c r="A68" s="17"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -1349,7 +1399,7 @@
       <c r="G68" s="3"/>
     </row>
     <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="18"/>
+      <c r="A69" s="17"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -1358,7 +1408,7 @@
       <c r="G69" s="3"/>
     </row>
     <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="18"/>
+      <c r="A70" s="17"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -1367,7 +1417,7 @@
       <c r="G70" s="3"/>
     </row>
     <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="18"/>
+      <c r="A71" s="17"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -1376,7 +1426,7 @@
       <c r="G71" s="3"/>
     </row>
     <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="18"/>
+      <c r="A72" s="17"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -1385,7 +1435,7 @@
       <c r="G72" s="3"/>
     </row>
     <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="18"/>
+      <c r="A73" s="17"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -1394,7 +1444,7 @@
       <c r="G73" s="3"/>
     </row>
     <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="18"/>
+      <c r="A74" s="17"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -1403,7 +1453,7 @@
       <c r="G74" s="3"/>
     </row>
     <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="18"/>
+      <c r="A75" s="17"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -1412,7 +1462,7 @@
       <c r="G75" s="3"/>
     </row>
     <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="18"/>
+      <c r="A76" s="17"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -1421,7 +1471,7 @@
       <c r="G76" s="3"/>
     </row>
     <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="18"/>
+      <c r="A77" s="17"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -1430,7 +1480,7 @@
       <c r="G77" s="3"/>
     </row>
     <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="18"/>
+      <c r="A78" s="17"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -1439,7 +1489,7 @@
       <c r="G78" s="3"/>
     </row>
     <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="18"/>
+      <c r="A79" s="17"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -1448,7 +1498,7 @@
       <c r="G79" s="3"/>
     </row>
     <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="18"/>
+      <c r="A80" s="17"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -1457,7 +1507,7 @@
       <c r="G80" s="3"/>
     </row>
     <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="18"/>
+      <c r="A81" s="17"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -1466,7 +1516,7 @@
       <c r="G81" s="3"/>
     </row>
     <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="18"/>
+      <c r="A82" s="17"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -1475,7 +1525,7 @@
       <c r="G82" s="3"/>
     </row>
     <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="18"/>
+      <c r="A83" s="17"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -1484,7 +1534,7 @@
       <c r="G83" s="3"/>
     </row>
     <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="18"/>
+      <c r="A84" s="17"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -1493,7 +1543,7 @@
       <c r="G84" s="3"/>
     </row>
     <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="18"/>
+      <c r="A85" s="17"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -1502,7 +1552,7 @@
       <c r="G85" s="3"/>
     </row>
     <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="18"/>
+      <c r="A86" s="17"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -1511,7 +1561,7 @@
       <c r="G86" s="3"/>
     </row>
     <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="18"/>
+      <c r="A87" s="17"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -1520,7 +1570,7 @@
       <c r="G87" s="3"/>
     </row>
     <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="18"/>
+      <c r="A88" s="17"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -1529,7 +1579,7 @@
       <c r="G88" s="3"/>
     </row>
     <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="18"/>
+      <c r="A89" s="17"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -1538,7 +1588,7 @@
       <c r="G89" s="3"/>
     </row>
     <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="18"/>
+      <c r="A90" s="17"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -1547,7 +1597,7 @@
       <c r="G90" s="3"/>
     </row>
     <row r="91" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="18"/>
+      <c r="A91" s="17"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -1556,7 +1606,7 @@
       <c r="G91" s="3"/>
     </row>
     <row r="92" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="18"/>
+      <c r="A92" s="17"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -1565,7 +1615,7 @@
       <c r="G92" s="3"/>
     </row>
     <row r="93" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="18"/>
+      <c r="A93" s="17"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -1574,7 +1624,7 @@
       <c r="G93" s="3"/>
     </row>
     <row r="94" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="18"/>
+      <c r="A94" s="17"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -1583,7 +1633,7 @@
       <c r="G94" s="3"/>
     </row>
     <row r="95" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="18"/>
+      <c r="A95" s="17"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -1592,7 +1642,7 @@
       <c r="G95" s="3"/>
     </row>
     <row r="96" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="18"/>
+      <c r="A96" s="17"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -1601,7 +1651,7 @@
       <c r="G96" s="3"/>
     </row>
     <row r="97" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="18"/>
+      <c r="A97" s="17"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -1610,7 +1660,7 @@
       <c r="G97" s="3"/>
     </row>
     <row r="98" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="18"/>
+      <c r="A98" s="17"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -1619,7 +1669,7 @@
       <c r="G98" s="3"/>
     </row>
     <row r="99" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="18"/>
+      <c r="A99" s="17"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -1628,7 +1678,7 @@
       <c r="G99" s="3"/>
     </row>
     <row r="100" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="18"/>
+      <c r="A100" s="17"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -1637,7 +1687,7 @@
       <c r="G100" s="3"/>
     </row>
     <row r="101" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="18"/>
+      <c r="A101" s="17"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -1646,7 +1696,7 @@
       <c r="G101" s="3"/>
     </row>
     <row r="102" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="18"/>
+      <c r="A102" s="17"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -1655,7 +1705,7 @@
       <c r="G102" s="3"/>
     </row>
     <row r="103" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="18"/>
+      <c r="A103" s="17"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -1664,7 +1714,7 @@
       <c r="G103" s="3"/>
     </row>
     <row r="104" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="18"/>
+      <c r="A104" s="17"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -1673,7 +1723,7 @@
       <c r="G104" s="3"/>
     </row>
     <row r="105" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105" s="18"/>
+      <c r="A105" s="17"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -1682,7 +1732,7 @@
       <c r="G105" s="3"/>
     </row>
     <row r="106" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106" s="18"/>
+      <c r="A106" s="17"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -1691,7 +1741,7 @@
       <c r="G106" s="3"/>
     </row>
     <row r="107" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="18"/>
+      <c r="A107" s="17"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -1700,7 +1750,7 @@
       <c r="G107" s="3"/>
     </row>
     <row r="108" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="18"/>
+      <c r="A108" s="17"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -1709,7 +1759,7 @@
       <c r="G108" s="3"/>
     </row>
     <row r="109" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="18"/>
+      <c r="A109" s="17"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -1718,7 +1768,7 @@
       <c r="G109" s="3"/>
     </row>
     <row r="110" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="18"/>
+      <c r="A110" s="17"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -1727,7 +1777,7 @@
       <c r="G110" s="3"/>
     </row>
     <row r="111" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="18"/>
+      <c r="A111" s="17"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -1736,7 +1786,7 @@
       <c r="G111" s="3"/>
     </row>
     <row r="112" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="18"/>
+      <c r="A112" s="17"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -1745,7 +1795,7 @@
       <c r="G112" s="3"/>
     </row>
     <row r="113" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113" s="18"/>
+      <c r="A113" s="17"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -1754,7 +1804,7 @@
       <c r="G113" s="3"/>
     </row>
     <row r="114" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114" s="18"/>
+      <c r="A114" s="17"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -1763,7 +1813,7 @@
       <c r="G114" s="3"/>
     </row>
     <row r="115" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A115" s="18"/>
+      <c r="A115" s="17"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -1772,7 +1822,7 @@
       <c r="G115" s="3"/>
     </row>
     <row r="116" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A116" s="18"/>
+      <c r="A116" s="17"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -1781,7 +1831,7 @@
       <c r="G116" s="3"/>
     </row>
     <row r="117" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" s="18"/>
+      <c r="A117" s="17"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -1790,7 +1840,7 @@
       <c r="G117" s="3"/>
     </row>
     <row r="118" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="18"/>
+      <c r="A118" s="17"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -1799,7 +1849,7 @@
       <c r="G118" s="3"/>
     </row>
     <row r="119" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119" s="18"/>
+      <c r="A119" s="17"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -1808,7 +1858,7 @@
       <c r="G119" s="3"/>
     </row>
     <row r="120" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120" s="18"/>
+      <c r="A120" s="17"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -1817,7 +1867,7 @@
       <c r="G120" s="3"/>
     </row>
     <row r="121" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A121" s="18"/>
+      <c r="A121" s="17"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -1826,7 +1876,7 @@
       <c r="G121" s="3"/>
     </row>
     <row r="122" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A122" s="18"/>
+      <c r="A122" s="17"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -1835,7 +1885,7 @@
       <c r="G122" s="3"/>
     </row>
     <row r="123" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="18"/>
+      <c r="A123" s="17"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -1844,7 +1894,7 @@
       <c r="G123" s="3"/>
     </row>
     <row r="124" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124" s="18"/>
+      <c r="A124" s="17"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -1853,7 +1903,7 @@
       <c r="G124" s="3"/>
     </row>
     <row r="125" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A125" s="18"/>
+      <c r="A125" s="17"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>

--- a/diaries/diary-bingfei-zhang.xlsx
+++ b/diaries/diary-bingfei-zhang.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -162,6 +162,33 @@
   </si>
   <si>
     <t>Crazy</t>
+  </si>
+  <si>
+    <t>Learn UML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good </t>
+  </si>
+  <si>
+    <t>Sequtial model is very useful, however is not easy to draw one</t>
+  </si>
+  <si>
+    <t>2/1/20-2/5/20</t>
+  </si>
+  <si>
+    <t>Yijia Zhang, Xiling Li</t>
+  </si>
+  <si>
+    <t>Find out how sending message is implemented in the Telegram</t>
+  </si>
+  <si>
+    <t>Drew a sequential diagram. Find out how sending message worked</t>
+  </si>
+  <si>
+    <t>Methods with thousands lines of codes is a disaster.</t>
+  </si>
+  <si>
+    <t>Tired with thousands lines of code.</t>
   </si>
 </sst>
 </file>
@@ -676,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -921,23 +948,49 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+    <row r="16" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="18">
+        <v>43861</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="3"/>
+    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>

--- a/diaries/diary-bingfei-zhang.xlsx
+++ b/diaries/diary-bingfei-zhang.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$17</definedName>
+  </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -195,7 +198,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +279,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -704,7 +713,7 @@
   <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G17" sqref="A1:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1968,10 +1977,11 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
--- a/diaries/diary-bingfei-zhang.xlsx
+++ b/diaries/diary-bingfei-zhang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -192,6 +192,33 @@
   </si>
   <si>
     <t>Tired with thousands lines of code.</t>
+  </si>
+  <si>
+    <t>2/7/20-2/12/20</t>
+  </si>
+  <si>
+    <t>Revise1</t>
+  </si>
+  <si>
+    <t>Revise</t>
+  </si>
+  <si>
+    <t>It is useful to look back to have a better understanding of what have learned</t>
+  </si>
+  <si>
+    <t>nervou s</t>
+  </si>
+  <si>
+    <t>nervous</t>
+  </si>
+  <si>
+    <t>Read code</t>
+  </si>
+  <si>
+    <t>Learened to be skepitical</t>
+  </si>
+  <si>
+    <t>Be skeptical, though by myself and listen to othes advices</t>
   </si>
 </sst>
 </file>
@@ -335,7 +362,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -393,6 +420,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -712,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="A1:G17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E23" sqref="E22:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1001,23 +1031,51 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="3"/>
+    <row r="18" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="18">
+        <v>43867</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="17"/>

--- a/diaries/diary-bingfei-zhang.xlsx
+++ b/diaries/diary-bingfei-zhang.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -219,6 +219,84 @@
   </si>
   <si>
     <t>Be skeptical, though by myself and listen to othes advices</t>
+  </si>
+  <si>
+    <t>5:00-7:50</t>
+  </si>
+  <si>
+    <t>Learn about KEP 7, 8, 9. and the big picture of the software, including stakeholder, functioalities and key developers</t>
+  </si>
+  <si>
+    <t>It could be easier to understand the code if having a understanding of the higher level picture of the applicatio. For example, if I know what the appliactio' main functionality, I can extract the most important codes from the whole source code, and the working load would drop down significatnly.</t>
+  </si>
+  <si>
+    <t>Get a knowledge about the different part of the big picture of a application. Understanding who could be thought as a stakeholder of the software and why, how  the funcationality of the software is classified and different roles of the developers of a software.</t>
+  </si>
+  <si>
+    <t>Not satisifaied with the examperformance,happy to learn about new knowledge.</t>
+  </si>
+  <si>
+    <t>10:00-12:00</t>
+  </si>
+  <si>
+    <t>Discuss about this week's homework.Talked about what stakeholder, functionalities and developrs are. And trying to find the issues of the project we chose.</t>
+  </si>
+  <si>
+    <t>Get deeper knowledge about how the big picture stands for. Tried to find open issues but failed. The Telegram does not have any open issues on the GItHub, that very wield for a open source project. Assigned works of each one. Planning to find issues from their web site.</t>
+  </si>
+  <si>
+    <t>Can not understand why a open source not openning issues on Github. We checked their pull request and found many old pull reuqests are not closed or merged. It seem like they are not working on the Github now. Maybe other open source plat form is used. We should learn about that.</t>
+  </si>
+  <si>
+    <t>Curious about why the close the issue function on the github, and still keep it open source</t>
+  </si>
+  <si>
+    <t>8:00-10:00</t>
+  </si>
+  <si>
+    <t>Alone</t>
+  </si>
+  <si>
+    <t>Look though last week's homework and Kaj's comments. Trying to understand what "Go as deep as needed" means</t>
+  </si>
+  <si>
+    <t>Still not very sure about what should be included in the homework. Looked through the code again, tried to understand the function sendMessage(). But cannot figure out how some classes and functions work.</t>
+  </si>
+  <si>
+    <t>As there are thousands lines of codes in the class sendMessage(),and many methods have the same name, it is very hard to find a beacon. And when a beacon is found, I should both go foreward and go back of the methods. Also, I'm not familiar with some libraries, that increase the difficulity to understand the code. I should learn more about the library and dependency to understand the code.</t>
+  </si>
+  <si>
+    <t>I feel that there are too many knowledge I should learn about, and a little confused where and how to start.</t>
+  </si>
+  <si>
+    <t>21:00-24:00</t>
+  </si>
+  <si>
+    <t>Read though the unmerged pull request in the Telegram repo to find 5 issues we could possibly solve.</t>
+  </si>
+  <si>
+    <t>Found seven issues they have not merged and not solved, then selected five from them. Some are relative trival while some are non-trival and may be very import issues. Like the external cache using with the secret chat.</t>
+  </si>
+  <si>
+    <t>Found that it could be easier to find out how to solve the issue with code. The pull request has already helped us located the code we need to read and we can easily understand what the code do and what we should do. Also, I found it could be easier tounderstand the code, even if the description of the issue is only 1-2 sentences</t>
+  </si>
+  <si>
+    <t>Still curious about why they are not working on Github, like many of the other programmer on Github</t>
+  </si>
+  <si>
+    <t>Look through the code in TLPRC class, contact Telegram developer group to find out if we could add and see their issues</t>
+  </si>
+  <si>
+    <t>In TLRPC, there are many class defined and used in other classes. It's mainly like a library for this application. To my understanding, TLRPC should stands for Telegram Remote Procudure Call, but  some class seem are not related. Need to check it later. Also, send messgae to telegram group to see if can join them to see their issues.</t>
+  </si>
+  <si>
+    <t>Seems like I still need to learn a lot to understand code, including network, operation system and so on. I'm worring about that.</t>
+  </si>
+  <si>
+    <t>1:00-5:00</t>
+  </si>
+  <si>
+    <t>Finally we found how to access the issues of telegram, but they are selecting helpers. We need to be better,  so that we can make some contribution. Also, talk with Kaj helped me understand how to write a report to help others understand the code.</t>
   </si>
 </sst>
 </file>
@@ -362,11 +440,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -391,18 +466,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -415,14 +478,38 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -742,1294 +829,1364 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E23" sqref="E22:E23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" style="9" customWidth="1"/>
     <col min="2" max="7" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
+      <c r="A10" s="15">
         <v>43839</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
+      <c r="A12" s="21">
         <v>43846</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
+      <c r="E12" s="19"/>
+      <c r="F12" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A14" s="18">
+      <c r="A14" s="21">
         <v>43853</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="18">
+      <c r="A16" s="21">
         <v>43861</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="20" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="18">
+      <c r="A18" s="21">
         <v>43867</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="20" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="20" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="3"/>
+    <row r="20" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A20" s="21">
+        <v>43874</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A21" s="21">
+        <v>43875</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="176" x14ac:dyDescent="0.2">
+      <c r="A22" s="21">
+        <v>43876</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+      <c r="A23" s="21">
+        <v>43879</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+      <c r="A24" s="21">
+        <v>43880</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="3"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="3"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="3"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="3"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="3"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="3"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="3"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="3"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="3"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="3"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="3"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="17"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="3"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="3"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="3"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="17"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="3"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="3"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="17"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="3"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="17"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="3"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="17"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="3"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="17"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="3"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="17"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="3"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="17"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="3"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="17"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="3"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="2"/>
     </row>
     <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="17"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="3"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="2"/>
     </row>
     <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="17"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="3"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="2"/>
     </row>
     <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="17"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="3"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="2"/>
     </row>
     <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="17"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="3"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="2"/>
     </row>
     <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="17"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="3"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="2"/>
     </row>
     <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="17"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="3"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="2"/>
     </row>
     <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="17"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="3"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="2"/>
     </row>
     <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="17"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="3"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="17"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="3"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="17"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="3"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="17"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="3"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="17"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="3"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="17"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="3"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="17"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="3"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="17"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="3"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="17"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="3"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="17"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="3"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="17"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="3"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="17"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="3"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="17"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="3"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="17"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="3"/>
+      <c r="A68" s="12"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="17"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="3"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="17"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="3"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="17"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="3"/>
+      <c r="A71" s="12"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="17"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="3"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="17"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="3"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="17"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="3"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="17"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="3"/>
+      <c r="A75" s="12"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="17"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="3"/>
+      <c r="A76" s="12"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="17"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="3"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="17"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="3"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="17"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="3"/>
+      <c r="A79" s="12"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="17"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="3"/>
+      <c r="A80" s="12"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="17"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="3"/>
+      <c r="A81" s="12"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="17"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="3"/>
+      <c r="A82" s="12"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="17"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="3"/>
+      <c r="A83" s="12"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="2"/>
     </row>
     <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="17"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="3"/>
+      <c r="A84" s="12"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="2"/>
     </row>
     <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="17"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="3"/>
+      <c r="A85" s="12"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="2"/>
     </row>
     <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="17"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="3"/>
+      <c r="A86" s="12"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="2"/>
     </row>
     <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="17"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="3"/>
+      <c r="A87" s="12"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="2"/>
     </row>
     <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="17"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="3"/>
+      <c r="A88" s="12"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="2"/>
     </row>
     <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="17"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="3"/>
+      <c r="A89" s="12"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="2"/>
     </row>
     <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="17"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="3"/>
+      <c r="A90" s="12"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="2"/>
     </row>
     <row r="91" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="17"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="3"/>
+      <c r="A91" s="12"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="2"/>
     </row>
     <row r="92" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="17"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="3"/>
+      <c r="A92" s="12"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="2"/>
     </row>
     <row r="93" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="17"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="3"/>
+      <c r="A93" s="12"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="2"/>
     </row>
     <row r="94" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="17"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="3"/>
+      <c r="A94" s="12"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="2"/>
     </row>
     <row r="95" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="17"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="3"/>
+      <c r="A95" s="12"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="2"/>
     </row>
     <row r="96" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="17"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="3"/>
+      <c r="A96" s="12"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="2"/>
     </row>
     <row r="97" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="17"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="3"/>
+      <c r="A97" s="12"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="2"/>
     </row>
     <row r="98" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="17"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="3"/>
+      <c r="A98" s="12"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="2"/>
     </row>
     <row r="99" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="17"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="3"/>
+      <c r="A99" s="12"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="2"/>
     </row>
     <row r="100" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="17"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="3"/>
+      <c r="A100" s="12"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="2"/>
     </row>
     <row r="101" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="17"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="3"/>
+      <c r="A101" s="12"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="2"/>
     </row>
     <row r="102" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="17"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="3"/>
+      <c r="A102" s="12"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="2"/>
     </row>
     <row r="103" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="17"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="3"/>
+      <c r="A103" s="12"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="2"/>
     </row>
     <row r="104" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="17"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="3"/>
+      <c r="A104" s="12"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="2"/>
     </row>
     <row r="105" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105" s="17"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="3"/>
+      <c r="A105" s="12"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="2"/>
     </row>
     <row r="106" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106" s="17"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="3"/>
+      <c r="A106" s="12"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="2"/>
     </row>
     <row r="107" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="17"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="3"/>
+      <c r="A107" s="12"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="2"/>
     </row>
     <row r="108" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="17"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="3"/>
+      <c r="A108" s="12"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="2"/>
     </row>
     <row r="109" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="17"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="3"/>
+      <c r="A109" s="12"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="2"/>
     </row>
     <row r="110" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="17"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="3"/>
+      <c r="A110" s="12"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="2"/>
     </row>
     <row r="111" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="17"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="3"/>
+      <c r="A111" s="12"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="2"/>
     </row>
     <row r="112" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="17"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="3"/>
+      <c r="A112" s="12"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="2"/>
     </row>
     <row r="113" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113" s="17"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="3"/>
+      <c r="A113" s="12"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="2"/>
     </row>
     <row r="114" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114" s="17"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="3"/>
+      <c r="A114" s="12"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="2"/>
     </row>
     <row r="115" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A115" s="17"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="3"/>
+      <c r="A115" s="12"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="2"/>
     </row>
     <row r="116" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A116" s="17"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="3"/>
+      <c r="A116" s="12"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="2"/>
     </row>
     <row r="117" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" s="17"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="3"/>
+      <c r="A117" s="12"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="2"/>
     </row>
     <row r="118" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="17"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="3"/>
+      <c r="A118" s="12"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="2"/>
     </row>
     <row r="119" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119" s="17"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="3"/>
+      <c r="A119" s="12"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="2"/>
     </row>
     <row r="120" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120" s="17"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="3"/>
+      <c r="A120" s="12"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="2"/>
     </row>
     <row r="121" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A121" s="17"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="3"/>
+      <c r="A121" s="12"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="2"/>
     </row>
     <row r="122" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A122" s="17"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="3"/>
+      <c r="A122" s="12"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="2"/>
     </row>
     <row r="123" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="17"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="3"/>
+      <c r="A123" s="12"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="2"/>
     </row>
     <row r="124" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124" s="17"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="3"/>
+      <c r="A124" s="12"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="2"/>
     </row>
     <row r="125" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A125" s="17"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="3"/>
+      <c r="A125" s="12"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
